--- a/experimental_models/01_one_window_two_stacked_bars/data_2.xlsx
+++ b/experimental_models/01_one_window_two_stacked_bars/data_2.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA17A86D-D808-4120-A696-9C4EF66BC589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194F380-2226-44D1-8A81-8E90F72F9D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3180" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-1" sheetId="1" r:id="rId1"/>
     <sheet name="data-2" sheetId="2" r:id="rId2"/>
+    <sheet name="data-1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Всего</t>
   </si>
@@ -39,12 +40,6 @@
   </si>
   <si>
     <t>Подсценарий 2</t>
-  </si>
-  <si>
-    <t>средний ремонт-1</t>
-  </si>
-  <si>
-    <t>легкий-ремонт-1</t>
   </si>
   <si>
     <t>легкий ремонт-1</t>
@@ -109,12 +104,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -130,6 +131,2231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-1'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсценарий 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-1'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51F5-4FAF-876A-0CC6BEE6F5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсценарий 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-1'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51F5-4FAF-876A-0CC6BEE6F5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1932177328"/>
+        <c:axId val="1932181488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1932177328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932181488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1932181488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932177328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-1 (2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсценарий 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-1 (2)'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29BB-4F73-9662-0661D69E7599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-1 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Подсценарий 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-1 (2)'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29BB-4F73-9662-0661D69E7599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2025493520"/>
+        <c:axId val="2025492272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2025493520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025492272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2025492272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025493520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D966361-B6D5-404E-BC4E-3940E8172886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67AF048-C242-48BF-9BD6-04DD8FC0652C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,37 +2634,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>134</v>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>160</v>
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <f>B2+B3</f>
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>103.5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>113.5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>147</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>147</v>
+      </c>
+      <c r="B13" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>157</v>
+      </c>
+      <c r="B14" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>157</v>
+      </c>
+      <c r="B15" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>167</v>
+      </c>
+      <c r="B16" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>177</v>
+      </c>
+      <c r="B17" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>197</v>
+      </c>
+      <c r="B18" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>240.5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>240.5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>260.5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>260.5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>294</v>
+      </c>
+      <c r="B24" s="3">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>294</v>
+      </c>
+      <c r="B25" s="3">
+        <v>290.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -446,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D193B-FE5C-49D6-AB78-0E457A75244A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +2860,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>170</v>
@@ -471,7 +2868,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
@@ -479,10 +2876,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,10 +2888,324 @@
       </c>
       <c r="B5" s="2">
         <f>SUM(B2:B4)</f>
-        <v>290</v>
+        <v>290.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91591A7-B268-4A0B-85EA-A77FE1A0202A}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>90</v>
+      </c>
+      <c r="B9" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>170</v>
+      </c>
+      <c r="B13" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>180</v>
+      </c>
+      <c r="B14" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>180</v>
+      </c>
+      <c r="B15" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>190</v>
+      </c>
+      <c r="B16" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>210</v>
+      </c>
+      <c r="B17" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>210</v>
+      </c>
+      <c r="B18" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>220</v>
+      </c>
+      <c r="B19" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>270</v>
+      </c>
+      <c r="B20" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>270</v>
+      </c>
+      <c r="B21" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>280</v>
+      </c>
+      <c r="B22" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>290</v>
+      </c>
+      <c r="B23" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>310</v>
+      </c>
+      <c r="B24" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>320</v>
+      </c>
+      <c r="B25" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>320</v>
+      </c>
+      <c r="B26" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>330</v>
+      </c>
+      <c r="B27" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>340</v>
+      </c>
+      <c r="B28" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>350</v>
+      </c>
+      <c r="B29" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>360</v>
+      </c>
+      <c r="B30" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>370</v>
+      </c>
+      <c r="B31" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>390</v>
+      </c>
+      <c r="B32" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>400</v>
+      </c>
+      <c r="B33" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>410</v>
+      </c>
+      <c r="B34" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>430</v>
+      </c>
+      <c r="B35" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>450</v>
+      </c>
+      <c r="B36" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>460</v>
+      </c>
+      <c r="B37" s="4">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>